--- a/자연,풍경.xlsx
+++ b/자연,풍경.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17580" windowHeight="8568"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22812" windowHeight="8616"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -14,106 +14,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <x:si>
-    <x:t>02-3783-5900</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">03187 서울 종로구 무교로 37 (서린동) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>엘리베이터, 
-장애인 화장실,
-휠체어 접근가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입장료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휴무일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-2290-6114</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">연중무휴 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>편의시설</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 청계천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 남산공원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24시간 개방되어있습니다. 
-다만, 우천 시 안전상의 이유로 출입이 통제될 수 있습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>• 남산공원 주차장 (남산도서관 뒤) : 승용차 5분당 150원, 16인 이상 차량 5분당 450원
-• 한남자락 주차장 이용(하얏트호텔 맞은편) : 승용차 5분당 150원, 16인 이상 차량 5분당 450원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.sisul.or.kr/open_content/cheonggye/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04628 서울특별시 중구 삼일대로 231</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이용시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24시간 개방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 여의도 한강공원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상시개방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장애인 전용 주차장,
-엘리베이터,
-장애인 화장실,
-휠체어 접근가능,
-장애인 안내
-(휠체어 대여 및 기타)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">남산공원은 서울에 있는 공원 중에서 가장 넓은 시민공원이다. 
-크게 장충지구와 예장지구, 회현지구, 한남지구로 나눌 수 있다. 
-여러 가지 체육행사가 열리며 백일장과 음악회 등의 문화행사도 열린다. 
-약수터가 많으며 공원 내에 김유신, 김구, 유관순 등의 동상이 있다.
-</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="148">
+  <x:si>
+    <x:t xml:space="preserve">경기도 과천시 청계산 아래에 있는 서울대공원은 1984년에 개원한 한국 최초의 동물원이다. 
+서울대공원은 커다란 호수를 중심으로 서울동물원, 장미원, 어린이동물원, 서울랜드(놀이동산), 국립현대미술관 등이 
+함께 자리잡고 있다. 청계산 숲길을 따라 7.4km 길이의 산림욕장과 자연캠프장이 마련되어 있다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 여의도 공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-450-9311</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[동물원] 5,000원 (청소년 3,000원 / 어린이 2,000원)
+[테마가든] 2,000원 (청소년 1,500원 / 어린이 1,000원)
+[캠핑장] 2,000원 (청소년 1,500원 / 어린이 1,000원 / 만 65세 이상 1,000원)
+- 만 5세 이하, 만 65세 이상 무료(※동물원,테마가든에 한함)
+- 입장권은 당일에 한하여 유효함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평화의 공원, 난지천공원, 난지한강공원은 상시개방
+하늘공원, 노을공원은 일몰시간+2시간부터 공원 통제
+(매달 통제시간이 다르니 홈페이지에서 확인 바랍니다.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 올림픽공원</x:t>
   </x:si>
   <x:si>
     <x:t>종로구와 중구 사이를 가르는 10.84km의 하천. 청계천의 짧은 정의다. 
@@ -128,20 +54,590 @@
 주말에는 거리 예술가들의 공연이 펼쳐진다. 청계천의 변신은 여전히 현재진행형이다.</x:t>
   </x:si>
   <x:si>
+    <x:t>https://www.jungnang.go.kr/portal/main/contents.do?menuNo=200599</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02257  서울 중랑구 용마산로 250-12 (면목동, 용마폭포공원관리사무소)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+05540  서울 송파구 올림픽로 424 
+(방이동, 올림픽공원) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객도움터,
+물품보관함,
+화장실,
+아기 쉼터,
+유모차 및 휠체어 대여소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18. 구암공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15. 마로니에 공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14. 도산 공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">06020  서울 강남구 도산대로45길 20 (도산전시관) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://parks.seoul.go.kr/template/sub/naksan.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.guro.go.kr/www/contents.do?key=2996</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://tour.jongno.go.kr/tour/tour/indvdlz/view.do?nttId=34651&amp;menuId=400176&amp;menuNo=400176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주차안내
+- 주차대수 : 386면
+· 동문(방문자센터) 주차장 : 312대
+· 서문(아트센터, 공연장 등) 주차장 : 74대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-500-7335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7. 서울 대공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. 월드컵 공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10. 선유도 공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-300-5500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-743-7985</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. 어린이 대공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12. 보라매 공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-412-0190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승 용 차	 5분당 150원	5,000원(1회 4시간 기준)
+중 형 차  5분당 300원	10,000원(1회 4시간 기준)
+(미니버스)
+대 형 차	 5분당 450원	15,000원(1회 4시간 기준)
+할인 기준
+- 장애인 및 국가유공자 80%
+- 경차 및 친환경 차 50%
+- 다둥이 30~50%
+- 노을여가센터 프로그램 참가자 30%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고척근린공원은 고척2동에 위치하며 자연적인 야산을 공원으로 조성한 구로구의 대표적인 공원이다. 
+높은 곳에 생긴 마을이라는 데에서 유래해서 고척이라는 지명을 갖게 되었다고 전해지고 있다. 
+은행나무와 벽화가 일대에 있어 산책하기에 적합하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">북서울꿈의숲은 복잡한 도심 속에서 시원하게 트인 풍경과 자연을 만날 수 있는 대형 녹지 공원이다. 
+서울 6개 구(강북, 성북, 도봉 등)에 걸쳐 총 66만여㎡에 이르는 면적은 월드컵공원, 올림픽공원, 서울숲에 이어 
+서울에서 4번째로 큰 규모이다. 커다란 연못과 넓은 잔디밭을 따라 산책로가 잘 조성되어 있으며, 복
+합문화공간인 '꿈의숲아트센터'를 비롯하여 미술관, 카페, 레스토랑 등 다양한 문화 휴식공간을 갖추고 있다. 
+정상 전망대에 오르면 서울 시내가 한 눈에 내려다 보인다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>어린이대공원은 서울 광진구에 위치해 있으며 가족 단위의 휴식공간이다. 
+동물나라, 놀이동산, 자연나라 등으로 구성되어 있다. 
+동물 먹이 주기 관람과 체험, 텃밭 체험 등이 가능하며 물놀이를 할 수 있는 수경시설이 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-2094-2965</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-2631-9368</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 02-2289–4000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-3423-6285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴무일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
     <x:t>무료</x:t>
   </x:si>
   <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입장료</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">07062  서울 동작구 여의대방로20길 33 (신대방동, 보라매공원)  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>24시간 개방
+다만, 우천 시 안전상의 이유로 출입이 통제될 수 있습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+07243  서울 영등포구 여의공원로 68 (여의도동, 여의도공원관리사무소)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">석촌호수공원은 시민들에게 사랑받는 휴식처이다. 
+송파대로를 기준으로 서호와 동호로 나누어져 있으며, 한 바퀴를 도는 동안 
+롯데월드어드벤처, 카페거리, 방이동먹자골목 등 다양한 풍경을 만나볼 수 있다. 
+매년 봄, 벚꽃이 만개할 때 ‘석촌호수 벚꽃축제’ 가 열리기도 한다 .
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-410-1114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16. 고척 근린공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://parks.seoul.go.kr/parks/detailView.do?pIdx=60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://parks.seoul.go.kr/template/sub/yeouido.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애인 화장실,
+휠체어 접근가능,
+장애인 전용 주차장,
+휠체어 대여,
+유아용 배터리 대여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애인 안내
+(휠체어 대여 및 기타),
+장애인 전용 주차장,
+장애인 화장실,
+휠체어 접근가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애인 화장실,
+휠체어 접근가능,
+장애인 전용 주차장,
+장애인 안내
+(휠체어 대여 및 기타)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://parks.seoul.go.kr/template/sub/seonyudo.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.sisul.or.kr/open_content/childrenpark/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://parks.seoul.go.kr/template/sub/boramae.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애인 안내
+(휠체어 대여 및 기타),
+휠체어 접근가능,
+장애인 화장실,
+장애인 전용 주차장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애인 화장실,
+장애인 안내
+(휠체어 대여 및 기타),
+휠체어 접근가능,
+장애인 전용 주차장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://parks.seoul.go.kr/template/sub/citizen.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+09:00~18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://parks.seoul.go.kr/parks/detailView.do?pIdx=52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://parks.seoul.go.kr/parks/detailView.do?pIdx=68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hangang.seoul.go.kr/archives/46678</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애인 화장실,
+휠체어 접근가능,
+장애인 전용 주차장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06773  서울특별시 서초구 매헌로 99 (양재동)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종로' 하면 떠오르는 탑골공원. 노인들의 휴식 공간으로 알려져 있지만 1919년 3월 1일로 기억되는 역사의 현장이기도 하다. 
+원래 원각사 터였던 이곳은 1897년 대한제국 고종 때 서구식 공원으로 건립됐다. 파고다공원이라 불리다 1992년 탑골공원으로 바뀌었다. 
+탑골공원의 정문은 삼일문이다. 문을 지나면 곧장 민족 대표 33인의 대표 의암 손병희 선생의 동상과 3.1 독립선언 기념탑이 보인다. 
+국보 제2호인 원각사지 10층석탑도 보인다. 형태와 평면이 특수하고 화려하며 훌륭한 걸작품으로 꼽힌다. 
+그 외에도 대원각사비, 조선 초기의 해시계인 앙부일구 받침돌 등의 문화재와 만해 한용운 선사비, 3.1 정신 찬양비가 세워져 있다. 
+탑골공원에서 이제 독립만세의 함성은 들리지 않지만 그날의 의미는 변하지 않는다. 종로에 나섰다면 그 숭고한 희생을 떠올리는 것도 좋을 듯하다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06513  서울특별시 서초구 잠원로 221-124 (잠원동)  한강공원잠원안내센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.sisul.or.kr/open_content/cheonggye/</x:t>
+  </x:si>
+  <x:si>
     <x:t>http://parks.seoul.go.kr/template/sub/namsan.do</x:t>
   </x:si>
   <x:si>
+    <x:t>• 남산공원 주차장 (남산도서관 뒤) : 승용차 5분당 150원, 16인 이상 차량 5분당 450원
+• 한남자락 주차장 이용(하얏트호텔 맞은편) : 승용차 5분당 150원, 16인 이상 차량 5분당 450원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://parks.seoul.go.kr/template/sub/worldcuppark.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://parks.seoul.go.kr/template/sub/dreamforest.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+• 일반 승용차 : 10분당 600원
+• 경차, 장애인, 국가유공자, 저공해, 다자녀(3자녀 이상) 차량 : 이용요금 50% 할인
+• 다자녀 (2자녀) 차량 : 25% 할인
+• 대형 차량 (25인승 이상, 2.5톤 이상) : 12,000원 정액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05:00 ~ 22:00
+10:00~17:00 
+(동물원 이용시간 / 계절 및 날씨 등에 따라 일부 변경될 수 있음.)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13. 양재시민의 숲</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">남산공원은 서울에 있는 공원 중에서 가장 넓은 시민공원이다. 
+크게 장충지구와 예장지구, 회현지구, 한남지구로 나눌 수 있다. 
+여러 가지 체육행사가 열리며 백일장과 음악회 등의 문화행사도 열린다. 
+약수터가 많으며 공원 내에 김유신, 김구, 유관순 등의 동상이 있다.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-575-3895</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">03085  서울 종로구 낙산길 41 (동숭동)  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>여의도 공원은 서울 영등포구 여의도동에 위치한 시민공원이다. 
+한국전통의 숲, 문화의 마당, 잔디마당, 자연생태의 숲 등 네 개의 공간으로 이루어져 있다. 
+주변에 자전거 도로와 산책로가 조성되어있어 시민들에게 휴식공간이자 문화공간의 역할을 하고 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애인 전용 주차장,
+엘리베이터,
+장애인 화장실,
+휠체어 접근가능,
+장애인 안내
+(휠체어 대여 및 기타)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://parks.seoul.go.kr/parks/detailView.do?pIdx=118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1978~93년 15년간 쌓인 쓰레기 매립지는 거대한 산을 이뤘다. 
+하지만 서울시의 '골칫덩어리' 매립지 위에 생태공원이 조성되면서 지금은 서울시민의 가장 사랑받는 월드컵 공원으로 거듭났다. 
+현재 92종 73만3000그루의 나무가 공원을 가득 메우고 있으며 여기에 난지연못과 난지천 등이 더해져 아름다운 자연 경관을 이루고 있다. 
+난지도의 역사와 변천에 대한 전반적인 모습을 볼 수 있는 월드컵공원 전시관과 수종 동식물과 다양한 새들을 볼 수 있는 
+난지 연못은 공원의 명소라고 할 수 있다. 이제는 축구 경기가 없는 날에도 자연스레 시민들의 가벼운 발걸음이 이어지고, 
+다양한 학습 프로그램과 행사를 기획해 교육 생태공원의 역할도 하고 있다. 
+세계인들이 탐내는 환경생태 에너지 테마 공원으로 발돋움한 것이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">선유도공원은 우리나라 최초의 재활용 생태 공원이다. 
+원래 정수장이 있던 자리로 2002년에 시민들의 휴식처이자 생태 공원으로 거듭났다. 
+모든 것을 허물고 다시 지어올린 것이 아니라 옛 인공의 조형물에 자연을 수혈했다. 
+세 개의 저장 탱크와 계단식 수조는 물이 정화되는 과정을 보여준다. 
+옛 정화장의 시설이 따로 존재하는 것이 아니라 생태 공원의 일부로 녹아들었음을 증명한다. 
+송수 펌프실로 쓰던 건물 역시 디자인서울갤러리(한강역사관)로 변신했다. 
+서울과 함께 흘러온 한강의 역사를 한눈에 확인할 수 있다. 
+공원은 길을 따라 만나는 테마 정원들과 공원의 바깥을 돌며 한강과 서울을 바라보는 산책로로 나뉜다. 
+그 옛날 서울 시민들에게 식수를 공급하던 선유도는 이제 맑은 공기를 전하는 서울의 산소 탱크의 역할을 수행하고 있다. </x:t>
+  </x:si>
+  <x:si>
     <x:t>주차장(주차요금)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9. 석촌호수 공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도산공원은 서울 강남구 신사동에 있는 공원으로 도산 안창호의 애국정신과 교육 정신을 기리고자 조성되었다. 
+매년 3월 10일 추모기념행사가 열린다. 기념관에는 임시정부 사료집과 도산일기 등이 전시되어 있으며 터치스크린을 이용해 도산어록을 볼 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[동·식물원 테마가든]
+하절기(5월~10월) 09:00~19:00
+동절기(11~2월) 09:00~17:00
+간절기(3~4월, 9~10월) 09:00~18:00
+온실식물원 10:00~16:00(연중)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17. 잠원 한강공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휠체어 접근가능,
+장애인 화장실,
+장애인 전용 주차장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>• 도보・자전거 출입 : 05:00~22:00 (광장지역은 24:00)
+• 차량 출입 : 06:00~22:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">03187 서울 종로구 무교로 37 (서린동) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>엘리베이터, 
+장애인 화장실,
+휠체어 접근가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">03900   서울특별시 마포구 하늘공원로 86  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>연중무휴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8. 낙산공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이용시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 청계천</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">연중무휴 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 남산공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24시간 개방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>편의시설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">20. 용마 폭포공원  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-2290-6114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-3783-5900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구암공원은 허준의 출생지인 서울 강서구 가양동에 위치해있다. 공원 뒤편에는 &lt;동의보감&gt;의 저자인 허준에 관한 박물관이 있다. 
+공원 내에 있는 허가바위는 성인 남성 스무 명이 들어갈 정도로 큰 바위로 임진왜란, 병자호란 등 난리 때 사람들의 피신처로 쓰이기도 했다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양재시민의 숲은 서울 서초구 양재동에 위치한 공원이다. 
+울창한 숲을 이루고 있으며, 자연 속에서 자유롭게 여러 가지 시설들을 이용할 수 있다. 
+잔디광장, 파고라 등의 조경시설과 배구장, 테니스장 등의 이 있으며 윤봉길 의사의 동상 및 기념관이 갖추어져 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04628 서울특별시 중구 삼일대로 231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울올림픽을 기념해 조성된 올림픽공원은 크게 문화 예술과 생활 체육, 환경 생태, 역사 체험 네 개의 카테고리로 구분된다. 
+국기광장 중심으로 북서쪽은 올림픽회관에서 몽촌토성으로 접어드는 길이다.  환경 생태와 역사 체험 공간이다. 
+반대로 남쪽은 소마미술관과 야외조각마당이 있는 문화 예술 영역이다. 
+올림픽공원은 세계 5대 조각 공원의 하나로 조각 공원을 따라 세계적인 거장에서 촉망받는 신진 작가까지 
+국내외 작가들의 작품 200여 점 이상을 전시하고 있다. 
+소마미술관과 야외조각마당을 따라서 조각 산책로를 걷다 보면 몽촌토성 동쪽의 생활 체육 공간과 마주한다. 
+올림픽 수영 경기장, 체조 경기장, 펜싱 경기장, 역도 경기장 등이 자리한다. 올림픽공원은 볼거리도 많고 즐길거리도 많다. 
+그저 욕심 없이 발길 닿는 대로 돌아보는 것도 좋다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휠체어 접근가능,
+장애인 화장실</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://grandpark.seoul.go.kr/main/ko.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">13829  경기 과천시 대공원광장로 102 (막계동, 서울대공원) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ksponco.or.kr/olympicpark/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11. 북서울 꿈의숲</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유모차 대여소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>110-122  서울특별시 종로구 종로 99 (종로2가)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휠체어 접근가능,
+장애인 전용 주차장,
+장애인 화장실</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주차안내
+공원 내 장애인 차량만 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>용마폭포공원의 용마폭포는 동양에서 가장 높은 높이를 자랑한다. 용마산은 아차산의 최고봉이다. 
+인공폭포 3개를 비롯하여 연못, 4개의 수영장, 축구장 배드민턴장 등 여러 시설물이 있다. 수석정원과 하늘공원, 야외음악당 등도 이용할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주차안내
+주차가능 수: 29대 /주차요금 10분당 300원</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+02-761-4079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주차안내
+• 보라매공원 정문주차장
+- 대방로 대방역 지하차도를 지나 대림동방향 보라매공원 정문으로 오셔서 유료주차장 이용
+- 시흥대로에서 대방로 진입 후 보라매공원 정문으로 오셔서 유료주차장 이용
+- 주차면수 : 78면
+- 이용시간 : 09:00~22:00
+- 이용료 : 5분당 130원
+• 보라매공원 동문주차장
+- 신대방 지하철역 지나 당곡사거리 방향으로 오시다가 보라매병원 정문 지나서 보라매공원 동문 유료주차장 이용
+- 시흥대로에서 당곡사거리 방향으로 오시다가 보라매병원 정문 지나서 보라매공원 동문 유료주차장 이용
+- 주차면수 : 52면
+- 이용시간 : 09:00~ 22:00
+- 이용료 : 5분당 100원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03086  서울 종로구 대학로 104 (동숭동)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">01228  서울특별시 강북구 월계로 173 (번동) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-731-0534</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+06:00 ~ 24:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조선 왕조는 풍수지리에 입각해 4개의 산을 주축으로 성을 쌓았다. 
+이 가운데 좌청룡에 해당하는 낙산은 그 산세가 낙타를 닮았다고 해 낙타산이라고 불렸다. 
+이를 줄여서 낙산이라고 부르던 것이 오늘에 이르렀다.
+산에 오르는 길은 혜화문과 동대문, 대학로로 나뉜다. 혜화문에서 낙산으로 올라오는 길은 풍경이 좋다. 
+산행을 꺼려하는 이라면 대학로 쪽에서 올라와도 좋다. 
+2007년 공공미술추진위원회에서 진행한 낙산공공미술 프로젝트는 산동네이던 낙산 언저리를 '그림'으로 만들어버렸다. 
+집의 벽에 봉제공장이 있었음을 나타내는 벽화를, 계단을 따라서는 꽃 그림을, 그리고 낙산공원에 이르는 산책로의 난간에는 
+재미난 조각품들을 설치하여 낙산에 생기를 불어넣었다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19. 탑골공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-2148-4158</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">08239  서울 구로구 고척로45길 31 (고척동, 고척시립도서관)  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>이용요금(5분당)
+: 승용차 150원, 중형차 300원, 대형차 450원</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">07525  서울 강서구 허준로5길 42 (가양동, 구암공원관리사무실)  </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">04991  서울특별시 광진구 능동로 216, 서울어린이대공원(능동)  </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+물품 및 애완동물 보관함, 
+유모차 대여소, 수유실, 
+고객안내센터, 음수대, 
+음식점 등
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-2600-4196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동작구 신대방동에 있는 보라매공원은 과거 공군사관학교로 사용되던 중 
+서울시에서 인수해 복지 및 편의시설이 마련된 시립공원으로 재탄생했다. 
+대운동장과 잔디광장, 독서실, 청소년 수련장, 소동물원, 체육관, 수영장, 장애인복지관, 남부노인종합복지관, 산책로, 조깅 코스 등이 있다. 
+비행기 조형물이 있는 에어파크, 반려견과 함께 뛰어놀 수 있는 반려견 놀이터도 보라매공원에서 만나볼 수 있다. 
+봄에는 겹벚꽃과 튤립으로 아름다운 풍경을 만끽할 수 있으며, 가을에는 단풍으로 물들여진 낭만적인 공원에서 행복한 나들이를 즐겨보자.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">07200  서울 영등포구 선유로 343 (당산동, 선유도공원) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-3780-0531</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-2181-1114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05608  서울 송파구 삼학사로 136 (서울놀이마당)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시민들의 휴식 공간, 연인들의 데이트 공간으로 널리 사랑받는 한강시민공원 잠원 지구는 
+다양한 수상 스포츠 시설과 8.2킬로미터에 달하는 인라인 스케이트 도로로 잘 알려져 있다. 
+또한 돗자리 깔고 누워 시간 보내기 좋은 폭신한 잔디밭이 넓게 펼쳐지고 반포 지구까지 자전거길이 이어져 있어 자전거를 타는 이들도 자주 찾는 곳이다. 
+특히 장애인 전용 테니스장도 있어 시민들에게 꾸준한 사랑을 받고 있다. 
+잠원동은 조선시대부터 일제강점기까지 대규모 뽕밭이 들어섰던 곳이다. 
+이에 서울시 한강사업본부는 어린이들에게 지역의 역사를 알리기 위해 잠원 지구에 누에의 일생을 형상화한 테마 자연 학습관 ‘잠원 자연 학습장’을 개장했다. 
+자연 학습장은 진입마당, 누에전시마당, 자생초화원, 학습마당 등으로 구성되어 있으며, 다양한 체험 코스가 마련되어 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-2619-6640</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종로구 동숭동에 있는 마로니에 공원은 서울대학교 법과대학이 관악구로 이전한 뒤 그 자리에 조성한 시민공원이다. 
+연중무휴 무료로 이용할 수 있으며 어린이 놀이터, 야외무대, 연못, 매점 등의 시설이 있다. 
+공원의 중심에는 문예회관 대극장, 바탕골소극장 등의 소극장이 몰려 있다.</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="10">
+  <x:fonts count="11">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -192,10 +688,6 @@
           <hs:underlineShape val="solid"/>
           <hs:underlineType val="1"/>
           <hs:underlineColor rgb="ff0000ff"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
         </x:font>
       </mc:Choice>
       <mc:Fallback>
@@ -207,23 +699,29 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff666666"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
           <x:name val="맑은 고딕"/>
           <x:sz val="11"/>
-          <x:color rgb="ff666666"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+          <hs:underlineShape val="solid"/>
+          <hs:underlineType val="1"/>
+          <hs:underlineColor rgb="ff0000ff"/>
         </x:font>
       </mc:Choice>
       <mc:Fallback>
         <x:font>
           <x:name val="맑은 고딕"/>
           <x:sz val="11"/>
-          <x:color rgb="ff666666"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -317,7 +815,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="7">
+  <x:cellXfs count="9">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -348,6 +846,12 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
@@ -1101,87 +1605,90 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:N4"/>
+  <x:dimension ref="A1:N21"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B4" activeCellId="0" sqref="B4:B4"/>
+    <x:sheetView tabSelected="1" topLeftCell="D4" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E7" activeCellId="0" sqref="E7:E7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:cols>
     <x:col min="1" max="1" width="16.69140625" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="102.69140625" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="33.44921875" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="130.3984375" customWidth="1"/>
+    <x:col min="4" max="4" width="64" customWidth="1"/>
+    <x:col min="5" max="5" width="63.9140625" bestFit="1" customWidth="1"/>
     <x:col min="6" max="6" width="48.7265625" bestFit="1" customWidth="1"/>
-    <x:col min="9" max="9" width="7.58203125" bestFit="1" customWidth="1"/>
-    <x:col min="10" max="10" width="8.59375" bestFit="1" customWidth="1"/>
-    <x:col min="11" max="11" width="12.73828125" bestFit="1" customWidth="1"/>
-    <x:col min="12" max="12" width="41.63671875" bestFit="1" customWidth="1"/>
-    <x:col min="13" max="13" width="18.90234375" bestFit="1" customWidth="1"/>
-    <x:col min="14" max="14" width="78.28515625" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="8.14453125" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="9.234375" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="11" width="13.59765625" bestFit="1" customWidth="1"/>
+    <x:col min="12" max="12" width="88.19921875" bestFit="1" customWidth="1"/>
+    <x:col min="13" max="13" width="23.19921875" customWidth="1"/>
+    <x:col min="14" max="14" width="96.0234375" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:14">
       <x:c r="A1" t="s">
-        <x:v>3</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>5</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C1" t="s">
-        <x:v>4</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D1" t="s">
-        <x:v>9</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E1" t="s">
-        <x:v>10</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F1" t="s">
-        <x:v>23</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G1" t="s">
-        <x:v>11</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H1" t="s">
-        <x:v>6</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I1" t="s">
-        <x:v>8</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="J1" t="s">
-        <x:v>7</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="K1" t="s">
-        <x:v>22</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="L1" t="s">
-        <x:v>21</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="M1" t="s">
-        <x:v>14</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N1" t="s">
-        <x:v>32</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:13" ht="192.09999999999999">
       <x:c r="A2" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C2" s="2"/>
       <x:c r="D2" s="6" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E2" s="2"/>
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E2" t="s">
+        <x:v>39</x:v>
+      </x:c>
       <x:c r="F2" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G2" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H2" s="2"/>
       <x:c r="I2" s="2">
@@ -1191,33 +1698,33 @@
         <x:v>126.9787</x:v>
       </x:c>
       <x:c r="K2" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="L2" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M2" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:14" ht="98.25">
       <x:c r="A3" t="s">
-        <x:v>16</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D3" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E3" t="s">
-        <x:v>30</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G3" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G3" t="s">
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I3">
         <x:v>37.551000000000002</x:v>
@@ -1226,28 +1733,667 @@
         <x:v>126.9909</x:v>
       </x:c>
       <x:c r="K3" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="L3" s="5" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="M3" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="N3" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13" ht="81.849999999999994">
+      <x:c r="A4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E4" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F4" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G4" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I4">
+        <x:v>37.525399999999998</x:v>
+      </x:c>
+      <x:c r="J4">
+        <x:v>126.92149999999999</x:v>
+      </x:c>
+      <x:c r="K4" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="L4" s="7" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M4" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:14" ht="131">
+      <x:c r="A5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F5" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G5" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I5">
+        <x:v>37.520699999999998</x:v>
+      </x:c>
+      <x:c r="J5">
+        <x:v>127.1215</x:v>
+      </x:c>
+      <x:c r="K5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="L5" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="M5" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="N5" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:14" ht="163.69999999999999">
+      <x:c r="A6" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D6" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E6" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F6" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G6" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I6">
+        <x:v>37.563899999999997</x:v>
+      </x:c>
+      <x:c r="J6">
+        <x:v>126.8935</x:v>
+      </x:c>
+      <x:c r="K6" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L6" s="7" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="N6" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:14" ht="98.25">
+      <x:c r="A7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D7" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E7" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="G7" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I7">
+        <x:v>37.549399999999999</x:v>
+      </x:c>
+      <x:c r="J7">
+        <x:v>127.0818</x:v>
+      </x:c>
+      <x:c r="K7" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L7" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="M7" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="N7" s="1" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:13" ht="98.25">
+      <x:c r="A8" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="L3" s="5" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="M3" s="1" t="s">
+      <x:c r="D8" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F8" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="G8" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I8">
+        <x:v>37.427500000000002</x:v>
+      </x:c>
+      <x:c r="J8">
+        <x:v>127.017</x:v>
+      </x:c>
+      <x:c r="K8" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L8" s="7" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="M8" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:14" ht="131">
+      <x:c r="A9" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D9" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E9" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F9" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G9" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I9">
+        <x:v>37.5807</x:v>
+      </x:c>
+      <x:c r="J9">
+        <x:v>127.00749999999999</x:v>
+      </x:c>
+      <x:c r="K9" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L9" s="7" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="M9" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="N9" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:13" ht="81.849999999999994">
+      <x:c r="A10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D10" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="E10" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F10" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G10" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I10">
+        <x:v>37.511299999999999</x:v>
+      </x:c>
+      <x:c r="J10">
+        <x:v>127.1052</x:v>
+      </x:c>
+      <x:c r="K10" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="N3" s="1" t="s">
+      <x:c r="L10" s="7" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="M10" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:14" ht="147.34999999999999">
+      <x:c r="A11" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D11" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E11" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F11" s="1" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="G11" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I11">
+        <x:v>37.543599999999998</x:v>
+      </x:c>
+      <x:c r="J11">
+        <x:v>126.8997</x:v>
+      </x:c>
+      <x:c r="K11" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="L11" s="7" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="M11" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="N11" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:14" ht="98.25">
+      <x:c r="A12" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D12" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E12" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F12" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G12" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I12">
+        <x:v>37.621400000000001</x:v>
+      </x:c>
+      <x:c r="J12">
+        <x:v>127.0406</x:v>
+      </x:c>
+      <x:c r="K12" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="L12" s="7" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="M12" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="N12" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1">
-      <x:c r="A4" t="s">
-        <x:v>25</x:v>
+    <x:row r="13" spans="1:14" ht="229.19999999999999">
+      <x:c r="A13" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D13" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E13" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F13" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G13" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I13">
+        <x:v>37.493200000000002</x:v>
+      </x:c>
+      <x:c r="J13">
+        <x:v>126.91970000000001</x:v>
+      </x:c>
+      <x:c r="K13" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="L13" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="N13" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:12" ht="49.149999999999999">
+      <x:c r="A14" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B14" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D14" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E14" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F14" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G14" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I14">
+        <x:v>37.470700000000001</x:v>
+      </x:c>
+      <x:c r="J14">
+        <x:v>127.0356</x:v>
+      </x:c>
+      <x:c r="K14" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="L14" s="7" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:13" ht="32.75">
+      <x:c r="A15" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B15" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D15" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E15" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F15" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G15" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I15">
+        <x:v>37.524500000000003</x:v>
+      </x:c>
+      <x:c r="J15">
+        <x:v>127.0354</x:v>
+      </x:c>
+      <x:c r="K15" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="L15" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="M15" s="1" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:13" ht="49.149999999999999">
+      <x:c r="A16" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B16" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D16" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E16" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F16" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G16" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I16">
+        <x:v>37.580500000000001</x:v>
+      </x:c>
+      <x:c r="J16">
+        <x:v>127.00279999999999</x:v>
+      </x:c>
+      <x:c r="K16" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="L16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="M16" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:12" ht="49.149999999999999">
+      <x:c r="A17" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B17" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E17" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F17" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G17" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I17">
+        <x:v>37.503700000000002</x:v>
+      </x:c>
+      <x:c r="J17">
+        <x:v>126.852</x:v>
+      </x:c>
+      <x:c r="K17" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="L17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:13" ht="114.59999999999999">
+      <x:c r="A18" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B18" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D18" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E18" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F18" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G18" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I18">
+        <x:v>37.520699999999998</x:v>
+      </x:c>
+      <x:c r="J18">
+        <x:v>127.0123</x:v>
+      </x:c>
+      <x:c r="K18" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="L18" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="M18" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:12" ht="32.75">
+      <x:c r="A19" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B19" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D19" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E19" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F19" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G19" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I19">
+        <x:v>37.567599999999999</x:v>
+      </x:c>
+      <x:c r="J19">
+        <x:v>126.85290000000001</x:v>
+      </x:c>
+      <x:c r="K19" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="L19" s="7" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:13" ht="98.25">
+      <x:c r="A20" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B20" s="8" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D20" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E20" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F20" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G20" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I20">
+        <x:v>37.571100000000001</x:v>
+      </x:c>
+      <x:c r="J20">
+        <x:v>126.9883</x:v>
+      </x:c>
+      <x:c r="K20" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="L20" s="7" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="M20" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:12" ht="32.75">
+      <x:c r="A21" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B21" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D21" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E21" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F21" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G21" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I21">
+        <x:v>37.572800000000001</x:v>
+      </x:c>
+      <x:c r="J21">
+        <x:v>127.0912</x:v>
+      </x:c>
+      <x:c r="K21" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L21" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="L3:L3" r:id="rId1"/>
+    <x:hyperlink ref="L4:L4" r:id="rId2"/>
+    <x:hyperlink ref="L6:L6" r:id="rId3"/>
+    <x:hyperlink ref="L8:L8" r:id="rId4"/>
+    <x:hyperlink ref="L9:L9" r:id="rId5"/>
+    <x:hyperlink ref="L10:L10" r:id="rId6"/>
+    <x:hyperlink ref="L11:L11" r:id="rId7"/>
+    <x:hyperlink ref="L12:L12" r:id="rId8"/>
+    <x:hyperlink ref="L13:L13" r:id="rId9"/>
+    <x:hyperlink ref="L14:L14" r:id="rId10"/>
+    <x:hyperlink ref="L19:L19" r:id="rId11"/>
+    <x:hyperlink ref="L20:L20" r:id="rId12"/>
   </x:hyperlinks>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/자연,풍경.xlsx
+++ b/자연,풍경.xlsx
@@ -14,32 +14,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="148">
-  <x:si>
-    <x:t xml:space="preserve">경기도 과천시 청계산 아래에 있는 서울대공원은 1984년에 개원한 한국 최초의 동물원이다. 
-서울대공원은 커다란 호수를 중심으로 서울동물원, 장미원, 어린이동물원, 서울랜드(놀이동산), 국립현대미술관 등이 
-함께 자리잡고 있다. 청계산 숲길을 따라 7.4km 길이의 산림욕장과 자연캠프장이 마련되어 있다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 여의도 공원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-450-9311</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[동물원] 5,000원 (청소년 3,000원 / 어린이 2,000원)
-[테마가든] 2,000원 (청소년 1,500원 / 어린이 1,000원)
-[캠핑장] 2,000원 (청소년 1,500원 / 어린이 1,000원 / 만 65세 이상 1,000원)
-- 만 5세 이하, 만 65세 이상 무료(※동물원,테마가든에 한함)
-- 입장권은 당일에 한하여 유효함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평화의 공원, 난지천공원, 난지한강공원은 상시개방
-하늘공원, 노을공원은 일몰시간+2시간부터 공원 통제
-(매달 통제시간이 다르니 홈페이지에서 확인 바랍니다.)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 올림픽공원</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="175">
+  <x:si>
+    <x:t>주차안내
+- 주차대수 : 386면
+· 동문(방문자센터) 주차장 : 312대
+· 서문(아트센터, 공연장 등) 주차장 : 74대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>• 도보・자전거 출입 : 05:00~22:00 (광장지역은 24:00)
+• 차량 출입 : 06:00~22:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YangjaeCitizen'sForest_01
+YangjaeCitizen'sForest_02
+YangjaeCitizen'sForest_03
+YangjaeCitizen'sForest_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gil-dongEcologicalPark_01
+Gil-dongEcologicalPark_02
+Gil-dongEcologicalPark_03
+Gil-dongEcologicalPark_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2005년 문을 연 서울숲은 시민들을 위한 여유로운 휴식처가 되고 있다. 
+서울숲은 문화예술공원, 생태숲, 자연체험학습원, 습지생태원, 한강수변공원 등 5개의 테마 공원으로 나뉜다. 
+문화예술공원에는 군마상과 숲속 놀이터 등이 마련돼 있다. 생태숲은 야생 동물과 야생 식물이 공생할 수 있도록 꾸민 것이 특징이다. 
+자연체험학습원에는 지킴이 숲과 곤충식물원 등이 있다. 습지생태원은 환경 놀이터와 야외 자연 교실 등 푸른 숲이 어우러진 웰빙 공간이다.
+ 한강수변공원은 자전거 도로와 한강유람선 선착장이 있어 젊음과 낭만을 만끽하기에 그만이다.2009년 서울숲은 또 한번의 변신을 시도했다. 
+유비쿼터스 프리존 구축을 통해 서울숲 어디서든 정보 통신 환경을 즐길 수 있도록 했다. 
+시민들에게 편리하고 안전한 쉼터로 거듭나기 위한 변신을 거듭하고 있는 것이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[동·식물원 테마가든]
+하절기(5월~10월) 09:00~19:00
+동절기(11~2월) 09:00~17:00
+간절기(3~4월, 9~10월) 09:00~18:00
+온실식물원 10:00~16:00(연중)</x:t>
   </x:si>
   <x:si>
     <x:t>종로구와 중구 사이를 가르는 10.84km의 하천. 청계천의 짧은 정의다. 
@@ -54,479 +66,32 @@
 주말에는 거리 예술가들의 공연이 펼쳐진다. 청계천의 변신은 여전히 현재진행형이다.</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.jungnang.go.kr/portal/main/contents.do?menuNo=200599</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02257  서울 중랑구 용마산로 250-12 (면목동, 용마폭포공원관리사무소)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-05540  서울 송파구 올림픽로 424 
-(방이동, 올림픽공원) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객도움터,
-물품보관함,
-화장실,
-아기 쉼터,
-유모차 및 휠체어 대여소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18. 구암공원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15. 마로니에 공원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14. 도산 공원</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">06020  서울 강남구 도산대로45길 20 (도산전시관) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://parks.seoul.go.kr/template/sub/naksan.do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.guro.go.kr/www/contents.do?key=2996</x:t>
+    <x:t>https://botanicpark.seoul.go.kr/front/main.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조선 왕조는 풍수지리에 입각해 4개의 산을 주축으로 성을 쌓았다. 
+이 가운데 좌청룡에 해당하는 낙산은 그 산세가 낙타를 닮았다고 해 낙타산이라고 불렸다. 
+이를 줄여서 낙산이라고 부르던 것이 오늘에 이르렀다.
+산에 오르는 길은 혜화문과 동대문, 대학로로 나뉜다. 혜화문에서 낙산으로 올라오는 길은 풍경이 좋다. 
+산행을 꺼려하는 이라면 대학로 쪽에서 올라와도 좋다. 
+2007년 공공미술추진위원회에서 진행한 낙산공공미술 프로젝트는 산동네이던 낙산 언저리를 '그림'으로 만들어버렸다. 
+집의 벽에 봉제공장이 있었음을 나타내는 벽화를, 계단을 따라서는 꽃 그림을, 그리고 낙산공원에 이르는 산책로의 난간에는 
+재미난 조각품들을 설치하여 낙산에 생기를 불어넣었다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평화의 공원, 난지천공원, 난지한강공원은 상시개방
+하늘공원, 노을공원은 일몰시간+2시간부터 공원 통제
+(매달 통제시간이 다르니 홈페이지에서 확인 바랍니다.)</x:t>
   </x:si>
   <x:si>
     <x:t>https://tour.jongno.go.kr/tour/tour/indvdlz/view.do?nttId=34651&amp;menuId=400176&amp;menuNo=400176</x:t>
   </x:si>
   <x:si>
-    <x:t>주차안내
-- 주차대수 : 386면
-· 동문(방문자센터) 주차장 : 312대
-· 서문(아트센터, 공연장 등) 주차장 : 74대</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-500-7335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7. 서울 대공원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5. 월드컵 공원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10. 선유도 공원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-300-5500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-743-7985</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6. 어린이 대공원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12. 보라매 공원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-412-0190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>승 용 차	 5분당 150원	5,000원(1회 4시간 기준)
-중 형 차  5분당 300원	10,000원(1회 4시간 기준)
-(미니버스)
-대 형 차	 5분당 450원	15,000원(1회 4시간 기준)
-할인 기준
-- 장애인 및 국가유공자 80%
-- 경차 및 친환경 차 50%
-- 다둥이 30~50%
-- 노을여가센터 프로그램 참가자 30%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고척근린공원은 고척2동에 위치하며 자연적인 야산을 공원으로 조성한 구로구의 대표적인 공원이다. 
-높은 곳에 생긴 마을이라는 데에서 유래해서 고척이라는 지명을 갖게 되었다고 전해지고 있다. 
-은행나무와 벽화가 일대에 있어 산책하기에 적합하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">북서울꿈의숲은 복잡한 도심 속에서 시원하게 트인 풍경과 자연을 만날 수 있는 대형 녹지 공원이다. 
-서울 6개 구(강북, 성북, 도봉 등)에 걸쳐 총 66만여㎡에 이르는 면적은 월드컵공원, 올림픽공원, 서울숲에 이어 
-서울에서 4번째로 큰 규모이다. 커다란 연못과 넓은 잔디밭을 따라 산책로가 잘 조성되어 있으며, 복
-합문화공간인 '꿈의숲아트센터'를 비롯하여 미술관, 카페, 레스토랑 등 다양한 문화 휴식공간을 갖추고 있다. 
-정상 전망대에 오르면 서울 시내가 한 눈에 내려다 보인다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>어린이대공원은 서울 광진구에 위치해 있으며 가족 단위의 휴식공간이다. 
-동물나라, 놀이동산, 자연나라 등으로 구성되어 있다. 
-동물 먹이 주기 관람과 체험, 텃밭 체험 등이 가능하며 물놀이를 할 수 있는 수경시설이 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-2094-2965</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-2631-9368</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 02-2289–4000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-3423-6285</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휴무일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입장료</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">07062  서울 동작구 여의대방로20길 33 (신대방동, 보라매공원)  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>24시간 개방
-다만, 우천 시 안전상의 이유로 출입이 통제될 수 있습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-07243  서울 영등포구 여의공원로 68 (여의도동, 여의도공원관리사무소)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">석촌호수공원은 시민들에게 사랑받는 휴식처이다. 
-송파대로를 기준으로 서호와 동호로 나누어져 있으며, 한 바퀴를 도는 동안 
-롯데월드어드벤처, 카페거리, 방이동먹자골목 등 다양한 풍경을 만나볼 수 있다. 
-매년 봄, 벚꽃이 만개할 때 ‘석촌호수 벚꽃축제’ 가 열리기도 한다 .
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-410-1114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16. 고척 근린공원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://parks.seoul.go.kr/parks/detailView.do?pIdx=60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://parks.seoul.go.kr/template/sub/yeouido.do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장애인 화장실,
-휠체어 접근가능,
-장애인 전용 주차장,
-휠체어 대여,
-유아용 배터리 대여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장애인 안내
-(휠체어 대여 및 기타),
-장애인 전용 주차장,
-장애인 화장실,
-휠체어 접근가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장애인 화장실,
-휠체어 접근가능,
-장애인 전용 주차장,
-장애인 안내
-(휠체어 대여 및 기타)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://parks.seoul.go.kr/template/sub/seonyudo.do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.sisul.or.kr/open_content/childrenpark/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://parks.seoul.go.kr/template/sub/boramae.do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장애인 안내
-(휠체어 대여 및 기타),
-휠체어 접근가능,
-장애인 화장실,
-장애인 전용 주차장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장애인 화장실,
-장애인 안내
-(휠체어 대여 및 기타),
-휠체어 접근가능,
-장애인 전용 주차장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://parks.seoul.go.kr/template/sub/citizen.do</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-09:00~18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://parks.seoul.go.kr/parks/detailView.do?pIdx=52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://parks.seoul.go.kr/parks/detailView.do?pIdx=68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://hangang.seoul.go.kr/archives/46678</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장애인 화장실,
-휠체어 접근가능,
-장애인 전용 주차장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06773  서울특별시 서초구 매헌로 99 (양재동)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>종로' 하면 떠오르는 탑골공원. 노인들의 휴식 공간으로 알려져 있지만 1919년 3월 1일로 기억되는 역사의 현장이기도 하다. 
-원래 원각사 터였던 이곳은 1897년 대한제국 고종 때 서구식 공원으로 건립됐다. 파고다공원이라 불리다 1992년 탑골공원으로 바뀌었다. 
-탑골공원의 정문은 삼일문이다. 문을 지나면 곧장 민족 대표 33인의 대표 의암 손병희 선생의 동상과 3.1 독립선언 기념탑이 보인다. 
-국보 제2호인 원각사지 10층석탑도 보인다. 형태와 평면이 특수하고 화려하며 훌륭한 걸작품으로 꼽힌다. 
-그 외에도 대원각사비, 조선 초기의 해시계인 앙부일구 받침돌 등의 문화재와 만해 한용운 선사비, 3.1 정신 찬양비가 세워져 있다. 
-탑골공원에서 이제 독립만세의 함성은 들리지 않지만 그날의 의미는 변하지 않는다. 종로에 나섰다면 그 숭고한 희생을 떠올리는 것도 좋을 듯하다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>06513  서울특별시 서초구 잠원로 221-124 (잠원동)  한강공원잠원안내센터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.sisul.or.kr/open_content/cheonggye/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://parks.seoul.go.kr/template/sub/namsan.do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>• 남산공원 주차장 (남산도서관 뒤) : 승용차 5분당 150원, 16인 이상 차량 5분당 450원
-• 한남자락 주차장 이용(하얏트호텔 맞은편) : 승용차 5분당 150원, 16인 이상 차량 5분당 450원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://parks.seoul.go.kr/template/sub/worldcuppark.do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://parks.seoul.go.kr/template/sub/dreamforest.do</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-• 일반 승용차 : 10분당 600원
-• 경차, 장애인, 국가유공자, 저공해, 다자녀(3자녀 이상) 차량 : 이용요금 50% 할인
-• 다자녀 (2자녀) 차량 : 25% 할인
-• 대형 차량 (25인승 이상, 2.5톤 이상) : 12,000원 정액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05:00 ~ 22:00
-10:00~17:00 
-(동물원 이용시간 / 계절 및 날씨 등에 따라 일부 변경될 수 있음.)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13. 양재시민의 숲</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">남산공원은 서울에 있는 공원 중에서 가장 넓은 시민공원이다. 
-크게 장충지구와 예장지구, 회현지구, 한남지구로 나눌 수 있다. 
-여러 가지 체육행사가 열리며 백일장과 음악회 등의 문화행사도 열린다. 
-약수터가 많으며 공원 내에 김유신, 김구, 유관순 등의 동상이 있다.
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-575-3895</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">03085  서울 종로구 낙산길 41 (동숭동)  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>여의도 공원은 서울 영등포구 여의도동에 위치한 시민공원이다. 
-한국전통의 숲, 문화의 마당, 잔디마당, 자연생태의 숲 등 네 개의 공간으로 이루어져 있다. 
-주변에 자전거 도로와 산책로가 조성되어있어 시민들에게 휴식공간이자 문화공간의 역할을 하고 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장애인 전용 주차장,
-엘리베이터,
-장애인 화장실,
-휠체어 접근가능,
-장애인 안내
-(휠체어 대여 및 기타)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://parks.seoul.go.kr/parks/detailView.do?pIdx=118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1978~93년 15년간 쌓인 쓰레기 매립지는 거대한 산을 이뤘다. 
-하지만 서울시의 '골칫덩어리' 매립지 위에 생태공원이 조성되면서 지금은 서울시민의 가장 사랑받는 월드컵 공원으로 거듭났다. 
-현재 92종 73만3000그루의 나무가 공원을 가득 메우고 있으며 여기에 난지연못과 난지천 등이 더해져 아름다운 자연 경관을 이루고 있다. 
-난지도의 역사와 변천에 대한 전반적인 모습을 볼 수 있는 월드컵공원 전시관과 수종 동식물과 다양한 새들을 볼 수 있는 
-난지 연못은 공원의 명소라고 할 수 있다. 이제는 축구 경기가 없는 날에도 자연스레 시민들의 가벼운 발걸음이 이어지고, 
-다양한 학습 프로그램과 행사를 기획해 교육 생태공원의 역할도 하고 있다. 
-세계인들이 탐내는 환경생태 에너지 테마 공원으로 발돋움한 것이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">선유도공원은 우리나라 최초의 재활용 생태 공원이다. 
-원래 정수장이 있던 자리로 2002년에 시민들의 휴식처이자 생태 공원으로 거듭났다. 
-모든 것을 허물고 다시 지어올린 것이 아니라 옛 인공의 조형물에 자연을 수혈했다. 
-세 개의 저장 탱크와 계단식 수조는 물이 정화되는 과정을 보여준다. 
-옛 정화장의 시설이 따로 존재하는 것이 아니라 생태 공원의 일부로 녹아들었음을 증명한다. 
-송수 펌프실로 쓰던 건물 역시 디자인서울갤러리(한강역사관)로 변신했다. 
-서울과 함께 흘러온 한강의 역사를 한눈에 확인할 수 있다. 
-공원은 길을 따라 만나는 테마 정원들과 공원의 바깥을 돌며 한강과 서울을 바라보는 산책로로 나뉜다. 
-그 옛날 서울 시민들에게 식수를 공급하던 선유도는 이제 맑은 공기를 전하는 서울의 산소 탱크의 역할을 수행하고 있다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>주차장(주차요금)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9. 석촌호수 공원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도산공원은 서울 강남구 신사동에 있는 공원으로 도산 안창호의 애국정신과 교육 정신을 기리고자 조성되었다. 
-매년 3월 10일 추모기념행사가 열린다. 기념관에는 임시정부 사료집과 도산일기 등이 전시되어 있으며 터치스크린을 이용해 도산어록을 볼 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[동·식물원 테마가든]
-하절기(5월~10월) 09:00~19:00
-동절기(11~2월) 09:00~17:00
-간절기(3~4월, 9~10월) 09:00~18:00
-온실식물원 10:00~16:00(연중)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17. 잠원 한강공원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휠체어 접근가능,
-장애인 화장실,
-장애인 전용 주차장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>• 도보・자전거 출입 : 05:00~22:00 (광장지역은 24:00)
-• 차량 출입 : 06:00~22:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">03187 서울 종로구 무교로 37 (서린동) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>엘리베이터, 
-장애인 화장실,
-휠체어 접근가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">03900   서울특별시 마포구 하늘공원로 86  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>연중무휴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8. 낙산공원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이용시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 청계천</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">연중무휴 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 남산공원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24시간 개방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>편의시설</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">20. 용마 폭포공원  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-2290-6114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-3783-5900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구암공원은 허준의 출생지인 서울 강서구 가양동에 위치해있다. 공원 뒤편에는 &lt;동의보감&gt;의 저자인 허준에 관한 박물관이 있다. 
-공원 내에 있는 허가바위는 성인 남성 스무 명이 들어갈 정도로 큰 바위로 임진왜란, 병자호란 등 난리 때 사람들의 피신처로 쓰이기도 했다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>양재시민의 숲은 서울 서초구 양재동에 위치한 공원이다. 
-울창한 숲을 이루고 있으며, 자연 속에서 자유롭게 여러 가지 시설들을 이용할 수 있다. 
-잔디광장, 파고라 등의 조경시설과 배구장, 테니스장 등의 이 있으며 윤봉길 의사의 동상 및 기념관이 갖추어져 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04628 서울특별시 중구 삼일대로 231</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서울올림픽을 기념해 조성된 올림픽공원은 크게 문화 예술과 생활 체육, 환경 생태, 역사 체험 네 개의 카테고리로 구분된다. 
-국기광장 중심으로 북서쪽은 올림픽회관에서 몽촌토성으로 접어드는 길이다.  환경 생태와 역사 체험 공간이다. 
-반대로 남쪽은 소마미술관과 야외조각마당이 있는 문화 예술 영역이다. 
-올림픽공원은 세계 5대 조각 공원의 하나로 조각 공원을 따라 세계적인 거장에서 촉망받는 신진 작가까지 
-국내외 작가들의 작품 200여 점 이상을 전시하고 있다. 
-소마미술관과 야외조각마당을 따라서 조각 산책로를 걷다 보면 몽촌토성 동쪽의 생활 체육 공간과 마주한다. 
-올림픽 수영 경기장, 체조 경기장, 펜싱 경기장, 역도 경기장 등이 자리한다. 올림픽공원은 볼거리도 많고 즐길거리도 많다. 
-그저 욕심 없이 발길 닿는 대로 돌아보는 것도 좋다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휠체어 접근가능,
-장애인 화장실</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://grandpark.seoul.go.kr/main/ko.do</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">13829  경기 과천시 대공원광장로 102 (막계동, 서울대공원) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ksponco.or.kr/olympicpark/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11. 북서울 꿈의숲</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유모차 대여소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110-122  서울특별시 종로구 종로 99 (종로2가)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휠체어 접근가능,
-장애인 전용 주차장,
-장애인 화장실</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주차안내
-공원 내 장애인 차량만 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>용마폭포공원의 용마폭포는 동양에서 가장 높은 높이를 자랑한다. 용마산은 아차산의 최고봉이다. 
-인공폭포 3개를 비롯하여 연못, 4개의 수영장, 축구장 배드민턴장 등 여러 시설물이 있다. 수석정원과 하늘공원, 야외음악당 등도 이용할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주차안내
-주차가능 수: 29대 /주차요금 10분당 300원</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-02-761-4079</x:t>
+    <x:t>Cheonggyecheon_01
+Cheonggyecheon_02
+Cheonggyecheon_03
+Cheonggyecheon_04
+Cheonggyecheon_05</x:t>
   </x:si>
   <x:si>
     <x:t>주차안내
@@ -544,57 +109,10 @@
 - 이용료 : 5분당 100원</x:t>
   </x:si>
   <x:si>
-    <x:t>03086  서울 종로구 대학로 104 (동숭동)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">01228  서울특별시 강북구 월계로 173 (번동) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-731-0534</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-06:00 ~ 24:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조선 왕조는 풍수지리에 입각해 4개의 산을 주축으로 성을 쌓았다. 
-이 가운데 좌청룡에 해당하는 낙산은 그 산세가 낙타를 닮았다고 해 낙타산이라고 불렸다. 
-이를 줄여서 낙산이라고 부르던 것이 오늘에 이르렀다.
-산에 오르는 길은 혜화문과 동대문, 대학로로 나뉜다. 혜화문에서 낙산으로 올라오는 길은 풍경이 좋다. 
-산행을 꺼려하는 이라면 대학로 쪽에서 올라와도 좋다. 
-2007년 공공미술추진위원회에서 진행한 낙산공공미술 프로젝트는 산동네이던 낙산 언저리를 '그림'으로 만들어버렸다. 
-집의 벽에 봉제공장이 있었음을 나타내는 벽화를, 계단을 따라서는 꽃 그림을, 그리고 낙산공원에 이르는 산책로의 난간에는 
-재미난 조각품들을 설치하여 낙산에 생기를 불어넣었다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19. 탑골공원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-2148-4158</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">08239  서울 구로구 고척로45길 31 (고척동, 고척시립도서관)  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>이용요금(5분당)
-: 승용차 150원, 중형차 300원, 대형차 450원</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">07525  서울 강서구 허준로5길 42 (가양동, 구암공원관리사무실)  </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">04991  서울특별시 광진구 능동로 216, 서울어린이대공원(능동)  </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-물품 및 애완동물 보관함, 
-유모차 대여소, 수유실, 
-고객안내센터, 음수대, 
-음식점 등
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-2600-4196</x:t>
+    <x:t>유모차 및 휠체어 대여소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://nodeul.org/</x:t>
   </x:si>
   <x:si>
     <x:t>동작구 신대방동에 있는 보라매공원은 과거 공군사관학교로 사용되던 중 
@@ -602,18 +120,6 @@
 대운동장과 잔디광장, 독서실, 청소년 수련장, 소동물원, 체육관, 수영장, 장애인복지관, 남부노인종합복지관, 산책로, 조깅 코스 등이 있다. 
 비행기 조형물이 있는 에어파크, 반려견과 함께 뛰어놀 수 있는 반려견 놀이터도 보라매공원에서 만나볼 수 있다. 
 봄에는 겹벚꽃과 튤립으로 아름다운 풍경을 만끽할 수 있으며, 가을에는 단풍으로 물들여진 낭만적인 공원에서 행복한 나들이를 즐겨보자.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">07200  서울 영등포구 선유로 343 (당산동, 선유도공원) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-3780-0531</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-2181-1114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>05608  서울 송파구 삼학사로 136 (서울놀이마당)</x:t>
   </x:si>
   <x:si>
     <x:t>시민들의 휴식 공간, 연인들의 데이트 공간으로 널리 사랑받는 한강시민공원 잠원 지구는 
@@ -625,12 +131,670 @@
 자연 학습장은 진입마당, 누에전시마당, 자생초화원, 학습마당 등으로 구성되어 있으며, 다양한 체험 코스가 마련되어 있다.</x:t>
   </x:si>
   <x:si>
-    <x:t>02-2619-6640</x:t>
+    <x:t xml:space="preserve">경기도 과천시 청계산 아래에 있는 서울대공원은 1984년에 개원한 한국 최초의 동물원이다. 
+서울대공원은 커다란 호수를 중심으로 서울동물원, 장미원, 어린이동물원, 서울랜드(놀이동산), 국립현대미술관 등이 
+함께 자리잡고 있다. 청계산 숲길을 따라 7.4km 길이의 산림욕장과 자연캠프장이 마련되어 있다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+09:00 - 18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">20. 반포 한강공원  </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">선유도공원은 우리나라 최초의 재활용 생태 공원이다. 
+원래 정수장이 있던 자리로 2002년에 시민들의 휴식처이자 생태 공원으로 거듭났다. 
+모든 것을 허물고 다시 지어올린 것이 아니라 옛 인공의 조형물에 자연을 수혈했다. 
+세 개의 저장 탱크와 계단식 수조는 물이 정화되는 과정을 보여준다. 
+옛 정화장의 시설이 따로 존재하는 것이 아니라 생태 공원의 일부로 녹아들었음을 증명한다. 
+송수 펌프실로 쓰던 건물 역시 디자인서울갤러리(한강역사관)로 변신했다. 
+서울과 함께 흘러온 한강의 역사를 한눈에 확인할 수 있다. 
+공원은 길을 따라 만나는 테마 정원들과 공원의 바깥을 돌며 한강과 서울을 바라보는 산책로로 나뉜다. 
+그 옛날 서울 시민들에게 식수를 공급하던 선유도는 이제 맑은 공기를 전하는 서울의 산소 탱크의 역할을 수행하고 있다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>무료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입장료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴무일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16. 노들섬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-2104-9716</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">03085  서울 종로구 낙산길 41 (동숭동)  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>06773  서울특별시 서초구 매헌로 99 (양재동)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휠체어 접근가능,
+장애인 화장실,
+장애인 전용 주차장</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">03900   서울특별시 마포구 하늘공원로 86  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>05608  서울 송파구 삼학사로 136 (서울놀이마당)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애인 화장실,
+휠체어 접근가능,
+장애인 전용 주차장</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">01228  서울특별시 강북구 월계로 173 (번동) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://parks.seoul.go.kr/template/sub/gildong.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DosanPark_01
+DosanPark_02
+DosanPark_03
+DosanPark_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애인 전용 주차장,
+휠체어 접근가능,
+장애인 화장실,
+장애인 안내
+(휠체어 대여 및 기타)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애인 안내
+(휠체어 대여 및 기타),
+휠체어 접근가능,
+장애인 화장실,
+장애인 전용 주차장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애인 화장실,
+장애인 안내
+(휠체어 대여 및 기타),
+휠체어 접근가능,
+장애인 전용 주차장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://parks.seoul.go.kr/template/sub/yeouido.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애인 화장실,
+휠체어 접근가능,
+장애인 전용 주차장,
+장애인 안내
+(휠체어 대여 및 기타)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://parks.seoul.go.kr/template/sub/boramae.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://parks.seoul.go.kr/template/sub/citizen.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://parks.seoul.go.kr/template/sub/seonyudo.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애인 안내
+(휠체어 대여 및 기타),
+장애인 전용 주차장,
+장애인 화장실,
+휠체어 접근가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애인 화장실,
+휠체어 접근가능,
+장애인 전용 주차장,
+휠체어 대여,
+유아용 배터리 대여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ksponco.or.kr/olympicpark/</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">13829  경기 과천시 대공원광장로 102 (막계동, 서울대공원) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">07200  서울 영등포구 선유로 343 (당산동, 선유도공원) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+05540  서울 송파구 올림픽로 424 
+(방이동, 올림픽공원) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://grandpark.seoul.go.kr/main/ko.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고객도움터,
+물품보관함,
+화장실,
+아기 쉼터,
+유모차 및 휠체어 대여소</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">북서울꿈의숲은 복잡한 도심 속에서 시원하게 트인 풍경과 자연을 만날 수 있는 대형 녹지 공원이다. 
+서울 6개 구(강북, 성북, 도봉 등)에 걸쳐 총 66만여㎡에 이르는 면적은 월드컵공원, 올림픽공원, 서울숲에 이어 
+서울에서 4번째로 큰 규모이다. 커다란 연못과 넓은 잔디밭을 따라 산책로가 잘 조성되어 있으며, 복
+합문화공간인 '꿈의숲아트센터'를 비롯하여 미술관, 카페, 레스토랑 등 다양한 문화 휴식공간을 갖추고 있다. 
+정상 전망대에 오르면 서울 시내가 한 눈에 내려다 보인다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>SeoulForest_01
+SeoulForest_02
+SeoulForest_03
+SeoulForest_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10분당 200원(승용차), 10분당 400원(중형차-승합차), 10분당 600원(대형차-16인승 이상)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DreamForest_01
+DreamForest_02
+DreamForest_03
+DreamForest_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YeouidoPark_01
+YeouidoPark_02
+YeouidoPark_03
+YeouidoPark_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OlympicPark_01
+OlympicPark_02
+OlympicPark_03
+OlympicPark_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">137-040  서울특별시 서초구 신반포로11길 39 (반포동) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>07789  서울 강서구 마곡동로 161 (마곡동, 서울식물원)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">04770  서울특별시 성동구 뚝섬로 273 (성수동1가)  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>화~일
+월요일 휴관
+공원(열린숲, 호수원, 습지원) 연중무휴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승 용 차	 5분당 150원	5,000원(1회 4시간 기준)
+중 형 차  5분당 300원	10,000원(1회 4시간 기준)
+(미니버스)
+대 형 차	 5분당 450원	15,000원(1회 4시간 기준)
+할인 기준
+- 장애인 및 국가유공자 80%
+- 경차 및 친환경 차 50%
+- 다둥이 30~50%
+- 노을여가센터 프로그램 참가자 30%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휠체어 접근가능,
+장애인 화장실</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[동물원] 5,000원 (청소년 3,000원 / 어린이 2,000원)
+[테마가든] 2,000원 (청소년 1,500원 / 어린이 1,000원)
+[캠핑장] 2,000원 (청소년 1,500원 / 어린이 1,000원 / 만 65세 이상 1,000원)
+- 만 5세 이하, 만 65세 이상 무료(※동물원,테마가든에 한함)
+- 입장권은 당일에 한하여 유효함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://parks.seoul.go.kr/template/sub/worldcuppark.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://parks.seoul.go.kr/template/sub/dreamforest.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://parks.seoul.go.kr/parks/detailView.do?pIdx=68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://parks.seoul.go.kr/parks/detailView.do?pIdx=118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1978~93년 15년간 쌓인 쓰레기 매립지는 거대한 산을 이뤘다. 
+하지만 서울시의 '골칫덩어리' 매립지 위에 생태공원이 조성되면서 지금은 서울시민의 가장 사랑받는 월드컵 공원으로 거듭났다. 
+현재 92종 73만3000그루의 나무가 공원을 가득 메우고 있으며 여기에 난지연못과 난지천 등이 더해져 아름다운 자연 경관을 이루고 있다. 
+난지도의 역사와 변천에 대한 전반적인 모습을 볼 수 있는 월드컵공원 전시관과 수종 동식물과 다양한 새들을 볼 수 있는 
+난지 연못은 공원의 명소라고 할 수 있다. 이제는 축구 경기가 없는 날에도 자연스레 시민들의 가벼운 발걸음이 이어지고, 
+다양한 학습 프로그램과 행사를 기획해 교육 생태공원의 역할도 하고 있다. 
+세계인들이 탐내는 환경생태 에너지 테마 공원으로 발돋움한 것이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">06020  서울 강남구 도산대로45길 20 (도산전시관) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>주차안내
+주차가능 수: 29대 /주차요금 10분당 300원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>• 남산공원 주차장 (남산도서관 뒤) : 승용차 5분당 150원, 16인 이상 차량 5분당 450원
+• 한남자락 주차장 이용(하얏트호텔 맞은편) : 승용차 5분당 150원, 16인 이상 차량 5분당 450원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7. 서울 대공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10. 선유도 공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-743-7985</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15. 마로니에 공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14. 도산 공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12. 보라매 공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-500-7335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. 월드컵 공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-300-5500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-412-0190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-410-1114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13. 양재시민의 숲</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-575-3895</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17. 잠원 한강공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주차장(주차요금)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9. 석촌호수 공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 여의도 공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 올림픽공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">07062  서울 동작구 여의대방로20길 33 (신대방동, 보라매공원)  </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+07243  서울 영등포구 여의공원로 68 (여의도동, 여의도공원관리사무소)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24시간 개방
+다만, 우천 시 안전상의 이유로 출입이 통제될 수 있습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hangang.seoul.go.kr/archives/46678</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애인 전용 주차장,
+엘리베이터,
+장애인 화장실,
+휠체어 접근가능,
+장애인 안내
+(휠체어 대여 및 기타)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://hangang.seoul.go.kr/archives/46727</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여의도 공원은 서울 영등포구 여의도동에 위치한 시민공원이다. 
+한국전통의 숲, 문화의 마당, 잔디마당, 자연생태의 숲 등 네 개의 공간으로 이루어져 있다. 
+주변에 자전거 도로와 산책로가 조성되어있어 시민들에게 휴식공간이자 문화공간의 역할을 하고 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도산공원은 서울 강남구 신사동에 있는 공원으로 도산 안창호의 애국정신과 교육 정신을 기리고자 조성되었다. 
+매년 3월 10일 추모기념행사가 열린다. 기념관에는 임시정부 사료집과 도산일기 등이 전시되어 있으며 터치스크린을 이용해 도산어록을 볼 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+• 일반 승용차 : 10분당 600원
+• 경차, 장애인, 국가유공자, 저공해, 다자녀(3자녀 이상) 차량 : 이용요금 50% 할인
+• 다자녀 (2자녀) 차량 : 25% 할인
+• 대형 차량 (25인승 이상, 2.5톤 이상) : 12,000원 정액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>양재시민의 숲은 서울 서초구 양재동에 위치한 공원이다. 
+울창한 숲을 이루고 있으며, 자연 속에서 자유롭게 여러 가지 시설들을 이용할 수 있다. 
+잔디광장, 파고라 등의 조경시설과 배구장, 테니스장 등의 이 있으며 윤봉길 의사의 동상 및 기념관이 갖추어져 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">남산공원은 서울에 있는 공원 중에서 가장 넓은 시민공원이다. 
+크게 장충지구와 예장지구, 회현지구, 한남지구로 나눌 수 있다. 
+여러 가지 체육행사가 열리며 백일장과 음악회 등의 문화행사도 열린다. 
+약수터가 많으며 공원 내에 김유신, 김구, 유관순 등의 동상이 있다.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">05291  서울 강동구 천호대로 1291 (길동) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">석촌호수공원은 시민들에게 사랑받는 휴식처이다. 
+송파대로를 기준으로 서호와 동호로 나누어져 있으며, 한 바퀴를 도는 동안 
+롯데월드어드벤처, 카페거리, 방이동먹자골목 등 다양한 풍경을 만나볼 수 있다. 
+매년 봄, 벚꽃이 만개할 때 ‘석촌호수 벚꽃축제’ 가 열리기도 한다 .
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11. 북서울 꿈의숲</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서울올림픽을 기념해 조성된 올림픽공원은 크게 문화 예술과 생활 체육, 환경 생태, 역사 체험 네 개의 카테고리로 구분된다. 
+국기광장 중심으로 북서쪽은 올림픽회관에서 몽촌토성으로 접어드는 길이다.  환경 생태와 역사 체험 공간이다. 
+반대로 남쪽은 소마미술관과 야외조각마당이 있는 문화 예술 영역이다. 
+올림픽공원은 세계 5대 조각 공원의 하나로 조각 공원을 따라 세계적인 거장에서 촉망받는 신진 작가까지 
+국내외 작가들의 작품 200여 점 이상을 전시하고 있다. 
+소마미술관과 야외조각마당을 따라서 조각 산책로를 걷다 보면 몽촌토성 동쪽의 생활 체육 공간과 마주한다. 
+올림픽 수영 경기장, 체조 경기장, 펜싱 경기장, 역도 경기장 등이 자리한다. 올림픽공원은 볼거리도 많고 즐길거리도 많다. 
+그저 욕심 없이 발길 닿는 대로 돌아보는 것도 좋다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://parks.seoul.go.kr/template/sub/namsan.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://parks.seoul.go.kr/template/sub/naksan.do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06513  서울특별시 서초구 잠원로 221-124 (잠원동)  한강공원잠원안내센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.sisul.or.kr/open_content/cheonggye/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-472-2770</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. 서울숲</x:t>
   </x:si>
   <x:si>
     <x:t>종로구 동숭동에 있는 마로니에 공원은 서울대학교 법과대학이 관악구로 이전한 뒤 그 자리에 조성한 시민공원이다. 
 연중무휴 무료로 이용할 수 있으며 어린이 놀이터, 야외무대, 연못, 매점 등의 시설이 있다. 
 공원의 중심에는 문예회관 대극장, 바탕골소극장 등의 소극장이 몰려 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">한강시민공원 중에서도 가장 큰 변화를 겪고 있는 곳이 반포 지구다. 
+반포대교와 동작대교 사이 강변 남단에 위치한 6.4킬로미터에 달하는 이곳은 최근 서울시의 '한강 르네상스 프로젝트'에 의해 새 단장을 마쳤다. 
+반포대교 달빛무지개분수를 비롯해 보행자 중심 다리로 거듭난 잠수교, 달을 테마로 한 달빛광장 등 재미있는 아이템이 가득하다. 
+달빛무지개분수는 세계에서 가장 긴 교량 분수로 기네스에 이름을 올렸는데 밤낮으로 모양과 색을 바꾸며 환상적인 아름다움을 자랑한다. 
+다양한 공연과 이벤트가 벌어지는 달빛광장은 달의 모습을 형상화해 만들었다. 이외에도 인라인 스케이트장, 생태 공원 등이 새롭게 조성되어 있다. 
+반포대교와 동작대교 사이에는 서래섬이 떠오른다. 나무와 꽃이 무성해 산책하기도 좋고 사진애호가들도 즐겨 찾는 곳이다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-2631-9368</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 02-2289–4000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-2148-4158</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+02-761-4079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-3783-5900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-3780-0531</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-3423-6285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-2290-6114</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+06:00 ~ 24:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-2181-1114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이용시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8. 낙산공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24시간 개방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 청계천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 남산공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">연중무휴 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>편의시설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유모차 대여소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연중무휴</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">03187 서울 종로구 무교로 37 (서린동) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>엘리베이터, 
+장애인 화장실,
+휠체어 접근가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03086  서울 종로구 대학로 104 (동숭동)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04628 서울특별시 중구 삼일대로 231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주차안내
+공원 내 장애인 차량만 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://seoulforest.or.kr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">강서구 마곡에 위치한 서울식물원은 공원과 식물원이 유기적으로 결합한 서울 최초 도시형 식물원이다. 
+숲, 정원, 호수, 습지가 공존하는 공간으로 주제원에는 세계 12개 도시를 주제로 식물을 전시한 대형 온실이 위치해 있다.
+서울식물원은 세계 12개 도시 식물과 식물문화를 소개하고 도시의 생태감수성을 높이기 위해 조성되었다. 
+서울식물원을 중심으로 수도권 광역 녹지체계를 구축하여 시민과 자연을 연결하고 교육, 문화행사 등 폭넓은 참여 기회를 제공하여 시민의 삶을 풍요롭게 할 예정이다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>MarronnierPark_01
+MarronnierPark_02
+MarronnierPark_03
+MarronnierPark_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SeoulGrandPark_01
+SeoulGrandPark_02
+SeoulGrandPark_03
+SeoulGrandPark_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>04427  서울 용산구 양녕로 445 (이촌동)  노들섬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NamsanPark_01
+NamsanPark_02
+NamsanPark_03
+NamsanPark_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NaksanPark_01
+NaksanPark_02
+NaksanPark_03
+NaksanPark_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주차요금	
+총 211면 (장애인주차 별도 6면)
+소형: 5분당 150원 / 대형: 5분당 300원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JamwonHangangPark_01
+JamwonHangangPark_02
+JamwonHangangPark_03
+JamwonHangangPark_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성인(만 19세 이상 만 65세 미만) 5,000원
+청소년(만 13세 이상 만 18세 이하) 3,000원
+어린이(만 6세 이상 12세 이상) 2,000원
+단체(30인 이상) 30% 할인
+만 6세 미만, 만 65세 이상 무료</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> NodeulIsland_01
+ NodeulIsland_02
+ NodeulIsland_03
+ NodeulIsland_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무료지만
+홈페이지에서 사전 예약 후 입장 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19.서울식물원</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">노들섬유료 주차개방 - 이용 요금 : 최초 30분 1,000원. 초과 10분 당 300원. 1일 최대 이용 요금 15,000원.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+3~10월 09:30~18:00(17:00 입장 마감)
+11~2월 09:30~17:00(16:00 입장 마감)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WorldCupPark_01
+WorldCupPark_02
+WorldCupPark_03
+WorldCupPark_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SeonyudoPark_01
+SeonyudoPark_02
+SeonyudoPark_03
+SeonyudoPark_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BoramaePark_01
+BoramaePark_02
+BoramaePark_03
+BoramaePark_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한강대교 중간에 위치한 타원형 모양의 땅으로 ‘백로가 놀던 돌’이라는 뜻의 ‘노돌’에서 이름이 유래한 것으로 알려져 있습니다.
+노들섬은 1930년대부터 1950년대까지 중지도로 불리며 한강 중심에서 백사장과 스케이트장으로 시민들에게 사랑받는 도심 속 강문화의 중심지였습니다.
+그러나 6~70년대 한강 개발 계획 이후 몇 차례 대규모 개발 계획안들이 무산되며 노들섬은 가깝지만 다가가기 어려운, 잊힌 섬이 되었습니다.
+2012년 한강에서 휴식과 만남의 공간으로 사람들을 이어주던 문화 공간으로 복원하기 위한 고민이 시작되었고,
+2019년 9월 노들섬은 ‘음악을 매개로 한 복합문화기지’로 새롭게 태어났습니다.
+많은 이들의 꿈을 담아 함께 만들어가는 공간으로 다시 태어난 노들섬.
+한강을 둘러싼 시민들과의 오랜 기억 위에 자연과 쉼, 문화가 있는 공간에 여러분과 아름다운 기억의 켜를 함께 쌓아갑니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>길동생태공원은 여의도 샛강생태공원에 이어 국내에서 두 번째로 조성된 생태공원입니다. 
+도심 속 생물에게 서식처를 제공하고 종 다양성을 높이기 위한 생태공간이자 자연 체험을 통해 환경의 이해와 중요성을 느낄 수 있는 곳입니다. 
+멸종위기종, 국가보호종 27종, 서울시보호종 23종 등 2,800여종의 다양한 생물들이 서식하고 있으며 
+환경지표종인 반딧불이를 직접 만나 볼 수 있는 반딧불이체험관, 서울의 생태에 대한 정보가 전시된 길동생태문화센터 등이 위치하고 있습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BanpoHangangPark_01
+BanpoHangangPark_02
+BanpoHangangPark_03
+BanpoHangangPark_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SeoulBotanicPark_01
+SeoulBotanicPark_02
+SeoulBotanicPark_03
+SeoulBotanicPark_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SeokchonLakePark_01
+SeokchonLakePark_02
+SeokchonLakePark_03
+SeokchonLakePark_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>• 하절기(3월~10월) : 화요일~금요일 10:00~21:00 / 주말 및 공휴일 10:00~22:00
+• 동절기(11월~2월) : 화요일~일요일 10:00~20:00
+• 야외공간 : 24시간 개방
+※ 매주 월요일은 휴관이며, 개별 시설마다 운영시간이 다를 수 있습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-460-2905</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-749-4500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18. 길동생태공원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-591-5943</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화~일
+월요일 휴관</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -714,6 +878,10 @@
           <hs:underlineShape val="solid"/>
           <hs:underlineType val="1"/>
           <hs:underlineColor rgb="ff0000ff"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
         </x:font>
       </mc:Choice>
       <mc:Fallback>
@@ -847,11 +1015,11 @@
     <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
@@ -1607,19 +1775,21 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:N21"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="D4" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E7" activeCellId="0" sqref="E7:E7"/>
+    <x:sheetView tabSelected="1" topLeftCell="E17" zoomScale="45" zoomScaleNormal="45" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="H23" activeCellId="0" sqref="H23:H23"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:cols>
     <x:col min="1" max="1" width="16.69140625" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="130.3984375" customWidth="1"/>
+    <x:col min="2" max="2" width="134.19921875" customWidth="1"/>
     <x:col min="4" max="4" width="64" customWidth="1"/>
     <x:col min="5" max="5" width="63.9140625" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="48.7265625" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="66.54296875" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="18.3984375" customWidth="1"/>
+    <x:col min="8" max="8" width="24.80078125" customWidth="1"/>
     <x:col min="9" max="9" width="8.14453125" bestFit="1" customWidth="1"/>
-    <x:col min="10" max="10" width="9.234375" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="9.24609375" bestFit="1" customWidth="1"/>
     <x:col min="11" max="11" width="13.59765625" bestFit="1" customWidth="1"/>
     <x:col min="12" max="12" width="88.19921875" bestFit="1" customWidth="1"/>
     <x:col min="13" max="13" width="23.19921875" customWidth="1"/>
@@ -1628,69 +1798,71 @@
   <x:sheetData>
     <x:row r="1" spans="1:14">
       <x:c r="A1" t="s">
-        <x:v>38</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>37</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1" t="s">
-        <x:v>41</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D1" t="s">
-        <x:v>40</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E1" t="s">
-        <x:v>45</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F1" t="s">
-        <x:v>100</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G1" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H1" t="s">
-        <x:v>44</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I1" t="s">
-        <x:v>43</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J1" t="s">
-        <x:v>42</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="K1" t="s">
-        <x:v>99</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="L1" t="s">
-        <x:v>106</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="M1" t="s">
-        <x:v>105</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="N1" t="s">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:13" ht="192.09999999999999">
       <x:c r="A2" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C2" s="2"/>
       <x:c r="D2" s="6" t="s">
-        <x:v>94</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E2" t="s">
-        <x:v>39</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F2" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G2" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="H2" s="2"/>
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="H2" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
       <x:c r="I2" s="2">
         <x:v>37.569099999999999</x:v>
       </x:c>
@@ -1698,33 +1870,36 @@
         <x:v>126.9787</x:v>
       </x:c>
       <x:c r="K2" s="6" t="s">
-        <x:v>108</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="L2" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="M2" s="4" t="s">
-        <x:v>95</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:14" ht="98.25">
       <x:c r="A3" t="s">
-        <x:v>103</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D3" s="6" t="s">
-        <x:v>112</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E3" t="s">
-        <x:v>39</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F3" t="s">
-        <x:v>104</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G3" t="s">
-        <x:v>97</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="s">
+        <x:v>151</x:v>
       </x:c>
       <x:c r="I3">
         <x:v>37.551000000000002</x:v>
@@ -1733,36 +1908,39 @@
         <x:v>126.9909</x:v>
       </x:c>
       <x:c r="K3" t="s">
-        <x:v>109</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="L3" s="5" t="s">
-        <x:v>72</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="M3" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N3" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:13" ht="81.849999999999994">
       <x:c r="A4" t="s">
-        <x:v>1</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E4" t="s">
-        <x:v>39</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F4" t="s">
-        <x:v>104</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G4" t="s">
-        <x:v>97</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H4" s="1" t="s">
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I4">
         <x:v>37.525399999999998</x:v>
@@ -1771,33 +1949,36 @@
         <x:v>126.92149999999999</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="L4" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M4" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:14" ht="131">
       <x:c r="A5" t="s">
-        <x:v>5</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E5" t="s">
-        <x:v>39</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F5" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G5" t="s">
-        <x:v>97</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H5" s="1" t="s">
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I5">
         <x:v>37.520699999999998</x:v>
@@ -1806,36 +1987,39 @@
         <x:v>127.1215</x:v>
       </x:c>
       <x:c r="K5" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="L5" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="M5" s="1" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="L5" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="M5" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="N5" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14" ht="163.69999999999999">
       <x:c r="A6" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D6" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E6" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="D6" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E6" t="s">
-        <x:v>39</x:v>
-      </x:c>
       <x:c r="F6" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G6" t="s">
-        <x:v>97</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H6" s="1" t="s">
+        <x:v>161</x:v>
       </x:c>
       <x:c r="I6">
         <x:v>37.563899999999997</x:v>
@@ -1844,71 +2028,77 @@
         <x:v>126.8935</x:v>
       </x:c>
       <x:c r="K6" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L6" s="7" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="N6" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:14" ht="98.25">
+    <x:row r="7" spans="1:14" ht="114.59999999999999">
       <x:c r="A7" t="s">
-        <x:v>25</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D7" t="s">
-        <x:v>137</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E7" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F7" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F7" t="s">
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G7" t="s">
-        <x:v>97</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H7" s="1" t="s">
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I7">
-        <x:v>37.549399999999999</x:v>
+        <x:v>37.544400000000003</x:v>
       </x:c>
       <x:c r="J7">
-        <x:v>127.0818</x:v>
-      </x:c>
-      <x:c r="K7" t="s">
-        <x:v>2</x:v>
+        <x:v>127.03740000000001</x:v>
+      </x:c>
+      <x:c r="K7" s="1" t="s">
+        <x:v>170</x:v>
       </x:c>
       <x:c r="L7" t="s">
-        <x:v>58</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="M7" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="N7" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:13" ht="98.25">
+    <x:row r="8" spans="1:13" ht="81.849999999999994">
       <x:c r="A8" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F8" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G8" t="s">
-        <x:v>97</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H8" s="1" t="s">
+        <x:v>149</x:v>
       </x:c>
       <x:c r="I8">
         <x:v>37.427500000000002</x:v>
@@ -1917,33 +2107,36 @@
         <x:v>127.017</x:v>
       </x:c>
       <x:c r="K8" t="s">
-        <x:v>19</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="L8" s="7" t="s">
-        <x:v>115</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="M8" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:14" ht="131">
       <x:c r="A9" t="s">
-        <x:v>98</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D9" t="s">
-        <x:v>81</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E9" t="s">
-        <x:v>39</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F9" t="s">
-        <x:v>104</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G9" t="s">
-        <x:v>97</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H9" s="1" t="s">
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I9">
         <x:v>37.5807</x:v>
@@ -1952,36 +2145,39 @@
         <x:v>127.00749999999999</x:v>
       </x:c>
       <x:c r="K9" t="s">
-        <x:v>24</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="L9" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="M9" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N9" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:13" ht="81.849999999999994">
       <x:c r="A10" t="s">
-        <x:v>88</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D10" t="s">
-        <x:v>144</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E10" t="s">
-        <x:v>39</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F10" t="s">
-        <x:v>104</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G10" t="s">
-        <x:v>97</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H10" s="1" t="s">
+        <x:v>168</x:v>
       </x:c>
       <x:c r="I10">
         <x:v>37.511299999999999</x:v>
@@ -1990,33 +2186,36 @@
         <x:v>127.1052</x:v>
       </x:c>
       <x:c r="K10" t="s">
-        <x:v>27</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L10" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="M10" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:14" ht="147.34999999999999">
       <x:c r="A11" t="s">
-        <x:v>22</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D11" t="s">
-        <x:v>141</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E11" t="s">
-        <x:v>39</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G11" t="s">
-        <x:v>97</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H11" s="1" t="s">
+        <x:v>162</x:v>
       </x:c>
       <x:c r="I11">
         <x:v>37.543599999999998</x:v>
@@ -2025,36 +2224,39 @@
         <x:v>126.8997</x:v>
       </x:c>
       <x:c r="K11" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="L11" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="M11" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N11" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:14" ht="98.25">
       <x:c r="A12" t="s">
-        <x:v>118</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D12" t="s">
-        <x:v>128</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E12" t="s">
-        <x:v>39</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F12" t="s">
-        <x:v>104</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G12" t="s">
-        <x:v>97</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H12" s="1" t="s">
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I12">
         <x:v>37.621400000000001</x:v>
@@ -2063,36 +2265,39 @@
         <x:v>127.0406</x:v>
       </x:c>
       <x:c r="K12" t="s">
-        <x:v>34</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="L12" s="7" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="M12" t="s">
-        <x:v>119</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="N12" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:14" ht="229.19999999999999">
       <x:c r="A13" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D13" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E13" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F13" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="G13" t="s">
         <x:v>140</x:v>
       </x:c>
-      <x:c r="D13" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E13" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F13" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="G13" t="s">
-        <x:v>97</x:v>
+      <x:c r="H13" s="1" t="s">
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I13">
         <x:v>37.493200000000002</x:v>
@@ -2101,33 +2306,36 @@
         <x:v>126.91970000000001</x:v>
       </x:c>
       <x:c r="K13" t="s">
-        <x:v>143</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="L13" s="7" t="s">
-        <x:v>59</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="N13" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:12" ht="49.149999999999999">
+    <x:row r="14" spans="1:12" ht="131">
       <x:c r="A14" t="s">
-        <x:v>78</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D14" t="s">
-        <x:v>68</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E14" t="s">
-        <x:v>39</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F14" t="s">
-        <x:v>104</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G14" t="s">
-        <x:v>97</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H14" s="1" t="s">
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I14">
         <x:v>37.470700000000001</x:v>
@@ -2136,30 +2344,33 @@
         <x:v>127.0356</x:v>
       </x:c>
       <x:c r="K14" t="s">
-        <x:v>80</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="L14" s="7" t="s">
-        <x:v>62</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:13" ht="32.75">
+    <x:row r="15" spans="1:13" ht="65.5">
       <x:c r="A15" t="s">
-        <x:v>13</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D15" t="s">
-        <x:v>14</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E15" t="s">
-        <x:v>39</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F15" t="s">
-        <x:v>104</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G15" t="s">
-        <x:v>97</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H15" s="1" t="s">
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I15">
         <x:v>37.524500000000003</x:v>
@@ -2168,33 +2379,36 @@
         <x:v>127.0354</x:v>
       </x:c>
       <x:c r="K15" t="s">
-        <x:v>35</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="L15" t="s">
-        <x:v>65</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="M15" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:13" ht="49.149999999999999">
+    <x:row r="16" spans="1:13" ht="65.5">
       <x:c r="A16" t="s">
-        <x:v>12</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D16" t="s">
-        <x:v>127</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E16" t="s">
-        <x:v>39</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F16" t="s">
-        <x:v>104</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G16" t="s">
-        <x:v>97</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H16" s="1" t="s">
+        <x:v>148</x:v>
       </x:c>
       <x:c r="I16">
         <x:v>37.580500000000001</x:v>
@@ -2203,65 +2417,74 @@
         <x:v>127.00279999999999</x:v>
       </x:c>
       <x:c r="K16" t="s">
-        <x:v>133</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="L16" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="M16" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:12" ht="49.149999999999999">
+    <x:row r="17" spans="1:14" ht="147.34999999999999">
       <x:c r="A17" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E17" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F17" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="G17" t="s">
-        <x:v>97</x:v>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F17" s="1" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="G17" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H17" s="1" t="s">
+        <x:v>156</x:v>
       </x:c>
       <x:c r="I17">
-        <x:v>37.503700000000002</x:v>
+        <x:v>37.517600000000002</x:v>
       </x:c>
       <x:c r="J17">
-        <x:v>126.852</x:v>
+        <x:v>126.958</x:v>
       </x:c>
       <x:c r="K17" t="s">
-        <x:v>146</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="L17" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="N17" s="1" t="s">
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:13" ht="114.59999999999999">
       <x:c r="A18" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D18" t="s">
-        <x:v>70</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E18" t="s">
-        <x:v>39</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F18" t="s">
-        <x:v>104</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G18" t="s">
-        <x:v>97</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H18" s="1" t="s">
+        <x:v>154</x:v>
       </x:c>
       <x:c r="I18">
         <x:v>37.520699999999998</x:v>
@@ -2270,112 +2493,125 @@
         <x:v>127.0123</x:v>
       </x:c>
       <x:c r="K18" t="s">
-        <x:v>142</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="L18" t="s">
-        <x:v>66</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="M18" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:12" ht="32.75">
+    <x:row r="19" spans="1:12" ht="65.5">
       <x:c r="A19" t="s">
-        <x:v>11</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D19" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E19" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F19" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="G19" t="s">
-        <x:v>97</x:v>
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E19" s="1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="F19" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G19" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="H19" s="1" t="s">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I19">
+        <x:v>37.540999999999997</x:v>
+      </x:c>
+      <x:c r="J19">
+        <x:v>127.1562</x:v>
+      </x:c>
+      <x:c r="K19" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="L19" s="8" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:14" ht="81.849999999999994">
+      <x:c r="A20" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B20" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D20" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E20" s="1" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="F20" s="1" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="G20" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H20" s="1" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="I20">
         <x:v>37.567599999999999</x:v>
       </x:c>
-      <x:c r="J19">
-        <x:v>126.85290000000001</x:v>
-      </x:c>
-      <x:c r="K19" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="L19" s="7" t="s">
+      <x:c r="J20">
+        <x:v>126.8321</x:v>
+      </x:c>
+      <x:c r="K20" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L20" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="M20" s="1"/>
+      <x:c r="N20" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:13" ht="98.25">
+      <x:c r="A21" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B21" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D21" t="s">
         <x:v>64</x:v>
       </x:c>
-    </x:row>
-    <x:row r="20" spans="1:13" ht="98.25">
-      <x:c r="A20" t="s">
+      <x:c r="E21" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F21" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="B20" s="8" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D20" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="E20" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F20" s="1" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G20" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="I20">
-        <x:v>37.571100000000001</x:v>
-      </x:c>
-      <x:c r="J20">
-        <x:v>126.9883</x:v>
-      </x:c>
-      <x:c r="K20" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="L20" s="7" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="M20" s="1" t="s">
-        <x:v>121</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:12" ht="32.75">
-      <x:c r="A21" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="B21" s="1" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="D21" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E21" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F21" t="s">
-        <x:v>104</x:v>
-      </x:c>
       <x:c r="G21" t="s">
-        <x:v>97</x:v>
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="H21" s="1" t="s">
+        <x:v>166</x:v>
       </x:c>
       <x:c r="I21">
-        <x:v>37.572800000000001</x:v>
+        <x:v>37.510399999999997</x:v>
       </x:c>
       <x:c r="J21">
-        <x:v>127.0912</x:v>
+        <x:v>126.996</x:v>
       </x:c>
       <x:c r="K21" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="L21" t="s">
-        <x:v>7</x:v>
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="M21" s="1" t="s">
+        <x:v>42</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2391,9 +2627,8 @@
     <x:hyperlink ref="L13:L13" r:id="rId9"/>
     <x:hyperlink ref="L14:L14" r:id="rId10"/>
     <x:hyperlink ref="L19:L19" r:id="rId11"/>
-    <x:hyperlink ref="L20:L20" r:id="rId12"/>
   </x:hyperlinks>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>